--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H2">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5692973333333333</v>
+        <v>0.06247066666666667</v>
       </c>
       <c r="N2">
-        <v>1.707892</v>
+        <v>0.187412</v>
       </c>
       <c r="O2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039283</v>
       </c>
       <c r="P2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039282</v>
       </c>
       <c r="Q2">
-        <v>0.1110313872804444</v>
+        <v>0.004368178072444444</v>
       </c>
       <c r="R2">
-        <v>0.9992824855239999</v>
+        <v>0.039313602652</v>
       </c>
       <c r="S2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039283</v>
       </c>
       <c r="T2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H3">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>10.153035</v>
       </c>
       <c r="O3">
-        <v>0.4669348232885666</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="P3">
-        <v>0.4669348232885665</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="Q3">
-        <v>0.6600567021549999</v>
+        <v>0.236645811665</v>
       </c>
       <c r="R3">
-        <v>5.940510319394999</v>
+        <v>2.129812304985</v>
       </c>
       <c r="S3">
-        <v>0.4669348232885666</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="T3">
-        <v>0.4669348232885665</v>
+        <v>0.5253497589468907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H4">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.294360666666666</v>
+        <v>2.995264</v>
       </c>
       <c r="N4">
-        <v>9.883082</v>
+        <v>8.985792</v>
       </c>
       <c r="O4">
-        <v>0.4545197714000211</v>
+        <v>0.46495295851407</v>
       </c>
       <c r="P4">
-        <v>0.4545197714000211</v>
+        <v>0.4649529585140699</v>
       </c>
       <c r="Q4">
-        <v>0.6425068476615555</v>
+        <v>0.2094398415146667</v>
       </c>
       <c r="R4">
-        <v>5.782561628953999</v>
+        <v>1.884958573632</v>
       </c>
       <c r="S4">
-        <v>0.4545197714000211</v>
+        <v>0.46495295851407</v>
       </c>
       <c r="T4">
-        <v>0.4545197714000211</v>
+        <v>0.4649529585140699</v>
       </c>
     </row>
   </sheetData>
